--- a/Output/redes/Tabla_centralidades.xlsx
+++ b/Output/redes/Tabla_centralidades.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,20 +392,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hospital de la Mujer</t>
+          <t>Hospital Municipal Boliviano Holandes</t>
         </is>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2">
+        <v>0.753</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.006</v>
-      </c>
-      <c r="E2">
-        <v>0.944</v>
       </c>
       <c r="F2">
         <v>2014</v>
@@ -414,20 +414,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hospital Municipal Boliviano Holandes</t>
+          <t>Hospital de la Mujer</t>
         </is>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>0.931</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.867</v>
       </c>
       <c r="F3">
         <v>2014</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>0.771</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0.001</v>
       </c>
       <c r="E4">
-        <v>0.799</v>
+        <v>0.77</v>
       </c>
       <c r="F4">
         <v>2014</v>
@@ -458,20 +458,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hospital del Niño</t>
+          <t>Hospital Municipal Los Andes</t>
         </is>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E5">
-        <v>0.77</v>
+        <v>0.624</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -480,20 +480,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hospital Municipal Los Andes</t>
+          <t>Hospital del Niño</t>
         </is>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.628</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.659</v>
+        <v>0.741</v>
       </c>
       <c r="F6">
         <v>2014</v>
@@ -502,42 +502,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hospital El Alto Norte</t>
+          <t>Hospital de Clinicas</t>
         </is>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.903</v>
+        <v>0.667</v>
       </c>
       <c r="D7">
-        <v>0.314</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.092</v>
       </c>
       <c r="F7">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hospital del Niño</t>
+          <t>Hospital El Alto Norte</t>
         </is>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.962</v>
       </c>
       <c r="D8">
-        <v>0.099</v>
+        <v>0.196</v>
       </c>
       <c r="E8">
-        <v>0.743</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -546,20 +546,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hospital de Clinicas</t>
+          <t>Hospital del Niño</t>
         </is>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>0.491</v>
+        <v>0.495</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="E9">
-        <v>0.6860000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -568,20 +568,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hospital de la Mujer</t>
+          <t>Hospital Municipal Boliviano Holandes</t>
         </is>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D10">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.696</v>
+        <v>0.311</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -590,20 +590,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hospital Municipal Boliviano Coreano</t>
+          <t>Hospital de Clinicas</t>
         </is>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>0.848</v>
+        <v>0.493</v>
       </c>
       <c r="D11">
-        <v>0.024</v>
+        <v>0.028</v>
       </c>
       <c r="E11">
-        <v>0.575</v>
+        <v>0.439</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -612,86 +612,86 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hospital El Alto Sur</t>
+          <t>Hospital de la Mujer</t>
         </is>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>0.743</v>
+        <v>0.495</v>
       </c>
       <c r="D12">
-        <v>0.177</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.458</v>
       </c>
       <c r="F12">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hospital de Clinicas</t>
+          <t>Hospital Municipal Boliviano Coreano</t>
         </is>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>0.473</v>
+        <v>0.551</v>
       </c>
       <c r="D13">
-        <v>0.06</v>
+        <v>0.007</v>
       </c>
       <c r="E13">
-        <v>0.893</v>
+        <v>0.37</v>
       </c>
       <c r="F13">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hospital del Niño</t>
+          <t>Hospital Municipal Los Andes</t>
         </is>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.473</v>
+        <v>0.532</v>
       </c>
       <c r="D14">
-        <v>0.065</v>
+        <v>0.001</v>
       </c>
       <c r="E14">
-        <v>0.871</v>
+        <v>0.323</v>
       </c>
       <c r="F14">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hospital El Alto Norte</t>
+          <t>Hospital Municipal Boliviano Holandes</t>
         </is>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C15">
-        <v>0.65</v>
+        <v>0.752</v>
       </c>
       <c r="D15">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.878</v>
+        <v>0.766</v>
       </c>
       <c r="F15">
         <v>2023</v>
@@ -700,22 +700,154 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hospital Municipal Boliviano Holandes</t>
+          <t>Hospital El Alto Sur</t>
         </is>
       </c>
       <c r="B16">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>0.716</v>
+      </c>
+      <c r="D16">
+        <v>0.08</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hospital El Alto Norte</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>0.744</v>
+      </c>
+      <c r="D17">
+        <v>0.074</v>
+      </c>
+      <c r="E17">
+        <v>0.919</v>
+      </c>
+      <c r="F17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hospital de Clinicas</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>0.502</v>
+      </c>
+      <c r="D18">
+        <v>0.032</v>
+      </c>
+      <c r="E18">
+        <v>0.638</v>
+      </c>
+      <c r="F18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hospital del Niño</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>0.502</v>
+      </c>
+      <c r="D19">
+        <v>0.034</v>
+      </c>
+      <c r="E19">
+        <v>0.624</v>
+      </c>
+      <c r="F19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hospital de la Mujer</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>28</v>
       </c>
-      <c r="C16">
-        <v>0.963</v>
-      </c>
-      <c r="D16">
-        <v>0.066</v>
-      </c>
-      <c r="E16">
-        <v>0.648</v>
-      </c>
-      <c r="F16">
+      <c r="C20">
+        <v>0.431</v>
+      </c>
+      <c r="D20">
+        <v>0.004</v>
+      </c>
+      <c r="E20">
+        <v>0.52</v>
+      </c>
+      <c r="F20">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hospital Municipal Boliviano Coreano</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.548</v>
+      </c>
+      <c r="D21">
+        <v>0.004</v>
+      </c>
+      <c r="E21">
+        <v>0.425</v>
+      </c>
+      <c r="F21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hospital Municipal Los Andes</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>0.51</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.373</v>
+      </c>
+      <c r="F22">
         <v>2023</v>
       </c>
     </row>
